--- a/06 - WINGS/01 - SCHEMAS ET PCB/99 - WORKING COPY/PO/BOM_QW.xlsx
+++ b/06 - WINGS/01 - SCHEMAS ET PCB/99 - WORKING COPY/PO/BOM_QW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsp2701\Documents\Travaux\Electrical\06 - WINGS\01 - SCHEMAS ET PCB\99 - WORKING COPY\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E0BA1A-78DB-4662-A93F-1267AC73605C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB9AC45-903F-4B3D-B887-4B7C410D7D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10515" yWindow="6585" windowWidth="18450" windowHeight="13560" xr2:uid="{664136A1-0876-461A-AF24-622AD4B922C4}"/>
+    <workbookView xWindow="-28920" yWindow="2835" windowWidth="29040" windowHeight="15840" xr2:uid="{664136A1-0876-461A-AF24-622AD4B922C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,16 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
-  <si>
-    <t>FID 1MM</t>
-  </si>
-  <si>
-    <t>FID - FIDUCIAL 1MM CIRCLE DOUBLE-SIDED - 1MM</t>
-  </si>
-  <si>
-    <t>FID1, FID2, FID3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>USB4151-GF-C</t>
   </si>
@@ -451,38 +442,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7BD046-CC21-4C67-88D2-62F5EC60FE75}">
-  <dimension ref="B1:I4"/>
+  <dimension ref="B1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -496,59 +494,45 @@
         <v>2</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
